--- a/IV_Array/Project Outputs/BOM/Bill of Materials-IV_Array.xlsx
+++ b/IV_Array/Project Outputs/BOM/Bill of Materials-IV_Array.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\college\UROP_S2022\IV_Array\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC913EA4-89B8-4BE8-A36D-503FD71588A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0B0250-854D-477B-B47B-AED483EC164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7ED878C-0ED7-4765-89CF-C45F4E8D4788}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{FD6C4212-7019-46B8-87EE-AA7E47A7D427}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-IV_Array" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
   <si>
     <t>Comment</t>
   </si>
@@ -333,6 +333,18 @@
     <t>HDR1X7</t>
   </si>
   <si>
+    <t>Header 3</t>
+  </si>
+  <si>
+    <t>Header, 3-Pin</t>
+  </si>
+  <si>
+    <t>P19, P20</t>
+  </si>
+  <si>
+    <t>HDR1X3</t>
+  </si>
+  <si>
     <t>10k</t>
   </si>
   <si>
@@ -441,16 +453,16 @@
     <t>1k</t>
   </si>
   <si>
-    <t>Chip Resistor, 1 KOhm, +/- 1%, 125 mW, -55 to 155 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
+    <t>TNPW08051K00BEEN</t>
   </si>
   <si>
     <t>R29</t>
   </si>
   <si>
-    <t>RESC2013X60X35ML10T20</t>
-  </si>
-  <si>
-    <t>CMP-2100-03671-1</t>
+    <t>RESC2013X55X40LL15T20</t>
+  </si>
+  <si>
+    <t>CMP-2001-04738-1</t>
   </si>
   <si>
     <t>1825255-1</t>
@@ -988,12 +1000,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89F7DBC-C2C9-47C0-BF10-5E118B0A5B3E}">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0635D3-9E2D-4697-937E-A951385780BE}">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:H41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1483,41 +1493,41 @@
         <v>104</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G22" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>112</v>
@@ -1530,7 +1540,7 @@
         <v>114</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -1539,7 +1549,7 @@
         <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>116</v>
@@ -1552,7 +1562,7 @@
         <v>118</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1561,53 +1571,53 @@
         <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="G26" s="1">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>130</v>
@@ -1620,7 +1630,7 @@
         <v>132</v>
       </c>
       <c r="G28" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -1629,17 +1639,17 @@
         <v>133</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G29" s="1">
         <v>6</v>
@@ -1648,45 +1658,45 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G31" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -1705,29 +1715,29 @@
         <v>148</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -1736,20 +1746,20 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -1758,20 +1768,20 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -1780,20 +1790,20 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -1802,20 +1812,20 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -1824,20 +1834,20 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -1846,69 +1856,91 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="G39" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G41" s="1">
+      <c r="B42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="1">
         <v>2</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IV_Array/Project Outputs/BOM/Bill of Materials-IV_Array.xlsx
+++ b/IV_Array/Project Outputs/BOM/Bill of Materials-IV_Array.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\college\UROP_S2022\IV_Array\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0B0250-854D-477B-B47B-AED483EC164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7691F50-84E4-4B5C-8332-AD26764E8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{FD6C4212-7019-46B8-87EE-AA7E47A7D427}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{B8A0957F-1709-4EA6-AB0D-2C639CDE93C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-IV_Array" sheetId="1" r:id="rId1"/>
@@ -1000,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0635D3-9E2D-4697-937E-A951385780BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB1F0F-A593-4F9E-B4EB-988FC6691652}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/IV_Array/Project Outputs/BOM/Bill of Materials-IV_Array.xlsx
+++ b/IV_Array/Project Outputs/BOM/Bill of Materials-IV_Array.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\college\UROP_S2022\IV_Array\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7691F50-84E4-4B5C-8332-AD26764E8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{475A4CE4-6019-4078-B44C-E2EC9F45DEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{B8A0957F-1709-4EA6-AB0D-2C639CDE93C6}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{AE2769DD-2200-4998-9710-B4D7EB658553}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-IV_Array" sheetId="1" r:id="rId1"/>
@@ -1000,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB1F0F-A593-4F9E-B4EB-988FC6691652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7C3B78-5386-4A81-929D-100C4DD0BD59}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
